--- a/total_res/LTA1_C_output.xlsx
+++ b/total_res/LTA1_C_output.xlsx
@@ -78670,7 +78670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78719,6 +78719,11 @@
           <t>files</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>amount_nc</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -78747,6 +78752,9 @@
       <c r="H2" t="n">
         <v>21</v>
       </c>
+      <c r="I2" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -78775,6 +78783,9 @@
       <c r="H3" t="n">
         <v>21</v>
       </c>
+      <c r="I3" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -78803,6 +78814,9 @@
       <c r="H4" t="n">
         <v>21</v>
       </c>
+      <c r="I4" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -78831,6 +78845,9 @@
       <c r="H5" t="n">
         <v>21</v>
       </c>
+      <c r="I5" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -78859,6 +78876,9 @@
       <c r="H6" t="n">
         <v>21</v>
       </c>
+      <c r="I6" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -78887,6 +78907,9 @@
       <c r="H7" t="n">
         <v>21</v>
       </c>
+      <c r="I7" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -78915,6 +78938,9 @@
       <c r="H8" t="n">
         <v>21</v>
       </c>
+      <c r="I8" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -78943,6 +78969,9 @@
       <c r="H9" t="n">
         <v>21</v>
       </c>
+      <c r="I9" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -78971,6 +79000,9 @@
       <c r="H10" t="n">
         <v>21</v>
       </c>
+      <c r="I10" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -78999,6 +79031,9 @@
       <c r="H11" t="n">
         <v>21</v>
       </c>
+      <c r="I11" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -79027,6 +79062,9 @@
       <c r="H12" t="n">
         <v>21</v>
       </c>
+      <c r="I12" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -79055,6 +79093,9 @@
       <c r="H13" t="n">
         <v>21</v>
       </c>
+      <c r="I13" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -79083,6 +79124,9 @@
       <c r="H14" t="n">
         <v>21</v>
       </c>
+      <c r="I14" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -79111,6 +79155,9 @@
       <c r="H15" t="n">
         <v>21</v>
       </c>
+      <c r="I15" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -79139,6 +79186,9 @@
       <c r="H16" t="n">
         <v>21</v>
       </c>
+      <c r="I16" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -79167,6 +79217,9 @@
       <c r="H17" t="n">
         <v>21</v>
       </c>
+      <c r="I17" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -79195,6 +79248,9 @@
       <c r="H18" t="n">
         <v>21</v>
       </c>
+      <c r="I18" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -79223,6 +79279,9 @@
       <c r="H19" t="n">
         <v>21</v>
       </c>
+      <c r="I19" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -79251,6 +79310,9 @@
       <c r="H20" t="n">
         <v>21</v>
       </c>
+      <c r="I20" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -79279,6 +79341,9 @@
       <c r="H21" t="n">
         <v>21</v>
       </c>
+      <c r="I21" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -79307,6 +79372,9 @@
       <c r="H22" t="n">
         <v>21</v>
       </c>
+      <c r="I22" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -79335,6 +79403,9 @@
       <c r="H23" t="n">
         <v>21</v>
       </c>
+      <c r="I23" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -79363,6 +79434,9 @@
       <c r="H24" t="n">
         <v>21</v>
       </c>
+      <c r="I24" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -79391,6 +79465,9 @@
       <c r="H25" t="n">
         <v>21</v>
       </c>
+      <c r="I25" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -79419,6 +79496,9 @@
       <c r="H26" t="n">
         <v>21</v>
       </c>
+      <c r="I26" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -79447,6 +79527,9 @@
       <c r="H27" t="n">
         <v>21</v>
       </c>
+      <c r="I27" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -79475,6 +79558,9 @@
       <c r="H28" t="n">
         <v>21</v>
       </c>
+      <c r="I28" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -79503,6 +79589,9 @@
       <c r="H29" t="n">
         <v>21</v>
       </c>
+      <c r="I29" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -79531,6 +79620,9 @@
       <c r="H30" t="n">
         <v>21</v>
       </c>
+      <c r="I30" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -79558,6 +79650,9 @@
       </c>
       <c r="H31" t="n">
         <v>21</v>
+      </c>
+      <c r="I31" t="n">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
